--- a/Putt Allotment.xlsx
+++ b/Putt Allotment.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Meta" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Assistants_Attendance" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -582,14 +583,11 @@
           <t>BABU</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>OP 1</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>WAITING</t>
@@ -600,15 +598,9 @@
           <t>4d7c1477-3f86-45d5-80e3-f0b872efcc6c</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="b">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -616,9 +608,6 @@
           <t>FARHATH SAYED</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>DR.HUSAIN</t>
@@ -639,14 +628,11 @@
           <t>LAVNYA</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>OP 1</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
           <t>WAITING</t>
@@ -657,15 +643,9 @@
           <t>b6ea6898-1d75-408e-9d13-7d68e0a9c46a</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="b">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -673,9 +653,6 @@
           <t>AJOY CHOUDHURY</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>DR.FARHATH</t>
@@ -696,14 +673,11 @@
           <t>ARCHANA</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>OP 3</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>WAITING</t>
@@ -714,15 +688,9 @@
           <t>353e5b8d-8c30-4ada-a163-02abba498742</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="b">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -730,9 +698,6 @@
           <t>RESHMA THAKUR</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>DR.KALPANA</t>
@@ -753,14 +718,11 @@
           <t>MUKHILA</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>OP 2</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
           <t>WAITING</t>
@@ -771,15 +733,9 @@
           <t>dc53b0ae-f468-4454-9216-44dd95cf90d6</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="b">
         <v>0</v>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -787,9 +743,6 @@
           <t>REHMAN DAKAIT</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>DR.NIMAI</t>
@@ -810,14 +763,11 @@
           <t>BABU</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>OP 4</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
           <t>WAITING</t>
@@ -828,15 +778,9 @@
           <t>182d2127-3809-4a2e-bba0-aae36013aa1f</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="b">
         <v>0</v>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -896,4 +840,55 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ASSISTANT</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>PUNCH IN</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>PUNCH OUT</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>WORKED MINS</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Putt Allotment.xlsx
+++ b/Putt Allotment.xlsx
@@ -848,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,34 +857,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>DATE</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>ASSISTANT</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>PUNCH IN</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PUNCH OUT</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>WORKED MINS</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>STATUS</t>
         </is>
       </c>
     </row>

--- a/Putt Allotment.xlsx
+++ b/Putt Allotment.xlsx
@@ -1,14 +1,34 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Meta" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Assistants_Attendance" sheetId="3" state="visible" r:id="rId3"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -27,12 +47,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -390,4 +419,81 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ASSISTANT</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PUNCH IN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PUNCH OUT</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>